--- a/docs/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
+++ b/docs/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.848651158265418e-08</v>
+        <v>6.650985193515199e-10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8.629401430334518e-06</v>
+        <v>9.435629509528259e-06</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.57861057156248e-05</v>
+        <v>3.940332640220782e-05</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8.158993579336011e-05</v>
+        <v>8.912433899491021e-05</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001452887697347207</v>
+        <v>0.000157591622060699</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002264599827342399</v>
+        <v>0.0002440099361728773</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003247913490243328</v>
+        <v>0.0003482974741566703</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004408157094592831</v>
+        <v>0.0004692287845529481</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>8.081650430796593e-07</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005735910967008442</v>
+        <v>0.0006076991141689865</v>
       </c>
       <c r="D16" t="n">
-        <v>5.581914313972155e-06</v>
+        <v>1.229764095951468e-05</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000724910568929212</v>
+        <v>0.0007643122737196944</v>
       </c>
       <c r="D17" t="n">
-        <v>2.395874574452934e-05</v>
+        <v>3.568947197799329e-05</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0008940871743036786</v>
+        <v>0.0009379271276902408</v>
       </c>
       <c r="D18" t="n">
-        <v>5.395803128339271e-05</v>
+        <v>6.928208659886968e-05</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001082678300202107</v>
+        <v>0.001128317933738168</v>
       </c>
       <c r="D19" t="n">
-        <v>9.411622673176995e-05</v>
+        <v>0.0001128035288148558</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001289899307701796</v>
+        <v>0.001336061316346792</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001449428268263245</v>
+        <v>0.000166174935932489</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001515372281024599</v>
+        <v>0.001561749592812818</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002058285475018214</v>
+        <v>0.0002295489303010083</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001758703238329739</v>
+        <v>0.001805448643154809</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002769013941261135</v>
+        <v>0.0003031009419451505</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002021123038553598</v>
+        <v>0.002067410665238578</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003581832471944157</v>
+        <v>0.0003867088377299903</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002301638373605559</v>
+        <v>0.002349753083193871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004501173684320405</v>
+        <v>0.000480288412308698</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002601505142314592</v>
+        <v>0.002652335917633582</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0005524386362640647</v>
+        <v>0.000584318451764875</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002922015500598368</v>
+        <v>0.002974199940300828</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0006658570052580817</v>
+        <v>0.0006988194923462606</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003262769751446372</v>
+        <v>0.003317539269302034</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0007898883685609782</v>
+        <v>0.0008239688789645609</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003623793476160117</v>
+        <v>0.003682649255309679</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0009258213359183565</v>
+        <v>0.0009616568961458178</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004006090849688459</v>
+        <v>0.004069317874955292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001073456657501028</v>
+        <v>0.00111192165371937</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004409755602286333</v>
+        <v>0.004478060312691045</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001234174215762358</v>
+        <v>0.001274711265054723</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004835587592553756</v>
+        <v>0.004910118576634573</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001406994624885992</v>
+        <v>0.001450009526464882</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005283813535389457</v>
+        <v>0.00536612163242128</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001591301572885864</v>
+        <v>0.001639223240251231</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00575586740423954</v>
+        <v>0.005846644121894883</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001787480436637567</v>
+        <v>0.001842673858989195</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006252026569685305</v>
+        <v>0.00635228118622505</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001996563323604301</v>
+        <v>0.002059382547000541</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006771480875587036</v>
+        <v>0.006883260272241341</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002217805172987552</v>
+        <v>0.002290251793841661</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007315981828670959</v>
+        <v>0.007440534474431162</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002452849281681767</v>
+        <v>0.002535418713155514</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0078885927962675</v>
+        <v>0.008022696785132575</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002703076696549811</v>
+        <v>0.002794240274016885</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008488512532464746</v>
+        <v>0.008631269815319626</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002968818256483796</v>
+        <v>0.003066559633381765</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009117915647600672</v>
+        <v>0.009268786461359937</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003250325080223701</v>
+        <v>0.003354782296716049</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009775566679519307</v>
+        <v>0.009934714595773051</v>
       </c>
       <c r="D40" t="n">
-        <v>0.003547496145192132</v>
+        <v>0.003658734634046592</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01046174078788672</v>
+        <v>0.01062798312084516</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003860251135713529</v>
+        <v>0.003978072982383201</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01117585559508204</v>
+        <v>0.01135096559331785</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004188726913248905</v>
+        <v>0.004312605081372527</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01192132392023616</v>
+        <v>0.01210394534509394</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004534531481107271</v>
+        <v>0.004662640926836132</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01269854245234837</v>
+        <v>0.01288666543281509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.004898019053775293</v>
+        <v>0.005030447481218469</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01350844549611614</v>
+        <v>0.01370183163770503</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00527870927697528</v>
+        <v>0.005416823291020024</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>0.014352092953841</v>
+        <v>0.01455227264723075</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00567925265883003</v>
+        <v>0.005823459276959154</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01523266151243704</v>
+        <v>0.01543910533535238</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006098057463777794</v>
+        <v>0.006249238222572891</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01614964635304865</v>
+        <v>0.0163637961347358</v>
       </c>
       <c r="D48" t="n">
-        <v>0.006537030950276152</v>
+        <v>0.006694855345445297</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01710403762537641</v>
+        <v>0.01732546117560708</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006998998747128493</v>
+        <v>0.007161776007343163</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01809596405071672</v>
+        <v>0.01832596889039937</v>
       </c>
       <c r="D50" t="n">
-        <v>0.007483677327515616</v>
+        <v>0.007650794263614986</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01912612660035589</v>
+        <v>0.01936533390942373</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007990666079910532</v>
+        <v>0.008162314072178238</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02019344679425151</v>
+        <v>0.02044457714310993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008519422283512317</v>
+        <v>0.008697393517711731</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02130386235023082</v>
+        <v>0.02156501356582434</v>
       </c>
       <c r="D53" t="n">
-        <v>0.009070982358277729</v>
+        <v>0.009256626929320935</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02246009240890871</v>
+        <v>0.02272823272465302</v>
       </c>
       <c r="D54" t="n">
-        <v>0.009647720499109285</v>
+        <v>0.009841366819386006</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02366191496656731</v>
+        <v>0.02393673450804536</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01025070962051034</v>
+        <v>0.01045132576196237</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02491145968664366</v>
+        <v>0.02519258430756122</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01088081613215369</v>
+        <v>0.01108843226762127</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02621089514218796</v>
+        <v>0.02649254998123601</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01153878917353518</v>
+        <v>0.01175148787787911</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02756270910947833</v>
+        <v>0.0278446210487839</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01222621898230268</v>
+        <v>0.01244329046937909</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02897082583611871</v>
+        <v>0.029250573213759</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01294195311680361</v>
+        <v>0.0131646659656236</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03043563762988971</v>
+        <v>0.03071670972925079</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01368522223732832</v>
+        <v>0.01391528352517645</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03195584506948419</v>
+        <v>0.03224358572193402</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01445919199768124</v>
+        <v>0.01469662418444839</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03353463008261574</v>
+        <v>0.03382887269645048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01526518928522395</v>
+        <v>0.01551080629688504</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03517350216937644</v>
+        <v>0.03547629768586456</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01610568252518509</v>
+        <v>0.01635902259086846</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03688458123279914</v>
+        <v>0.0371953937326144</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0169791448371517</v>
+        <v>0.0172423184303316</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03867490910589202</v>
+        <v>0.03898588207687046</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01788851024295812</v>
+        <v>0.0181593763906759</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04054354385268845</v>
+        <v>0.04085762658167001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01883536120312562</v>
+        <v>0.01911379600856392</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04250457018232223</v>
+        <v>0.04282157266545549</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01981957949496243</v>
+        <v>0.02010557070035519</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04456492103503033</v>
+        <v>0.04488444781750348</v>
       </c>
       <c r="D68" t="n">
-        <v>0.020843863502726</v>
+        <v>0.02113634446667834</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0467278280438068</v>
+        <v>0.04704517149529807</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02191041957886909</v>
+        <v>0.02220914553338983</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04900743513945455</v>
+        <v>0.04931876143688712</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02302179042945563</v>
+        <v>0.0233260620982971</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>0.05141787819337239</v>
+        <v>0.05172621115150727</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02418256334479382</v>
+        <v>0.02448947349780582</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05398091831767622</v>
+        <v>0.05428015137236415</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02539032165481049</v>
+        <v>0.02570310134077462</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05671953637977685</v>
+        <v>0.05700474397298083</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02664892942348986</v>
+        <v>0.02697044173203458</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05965117860921963</v>
+        <v>0.05991986142938238</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02796490881600504</v>
+        <v>0.0282960432698273</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06279441370588512</v>
+        <v>0.06306903877812713</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02934538623441432</v>
+        <v>0.02968181932112346</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0661837065941792</v>
+        <v>0.06650529150148506</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03079981660540627</v>
+        <v>0.03113498291926217</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06990208124469079</v>
+        <v>0.07028224685155805</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03232659487315364</v>
+        <v>0.03266416662535409</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07400343836646275</v>
+        <v>0.07441681600291093</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03394091484267808</v>
+        <v>0.03428383540658114</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07855896095546797</v>
+        <v>0.07901137905182781</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03564050952743403</v>
+        <v>0.03600350373943971</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08362345145617162</v>
+        <v>0.08409467173774443</v>
       </c>
       <c r="D80" t="n">
-        <v>0.037444889464284</v>
+        <v>0.03783701239955043</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08925581334083788</v>
+        <v>0.08975035819458292</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03936855756950733</v>
+        <v>0.03979761293176122</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09548072573510334</v>
+        <v>0.09600584431973239</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04143620376145576</v>
+        <v>0.04189842413386412</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1023557961971335</v>
+        <v>0.1029425639265255</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04367057870975791</v>
+        <v>0.04418066703025838</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1099821286977521</v>
+        <v>0.1106348742668855</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0461224126985918</v>
+        <v>0.04668491221307414</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1184396291548474</v>
+        <v>0.1191382393332683</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04883954865913382</v>
+        <v>0.04944504913245163</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>0.12790343816437</v>
+        <v>0.1286349875012225</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05194420497538475</v>
+        <v>0.05256472747411913</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1385371133944896</v>
+        <v>0.1393352901057771</v>
       </c>
       <c r="D87" t="n">
-        <v>0.05555706999916801</v>
+        <v>0.05618597459954322</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1507233118955087</v>
+        <v>0.1514286899542718</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06011473886522573</v>
+        <v>0.06069778075572794</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1649200401693039</v>
+        <v>0.1654801844953855</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0676966838447788</v>
+        <v>0.06812587048298349</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1822302172879039</v>
+        <v>0.1828980021416812</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08333357312648947</v>
+        <v>0.08328629220237169</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2047957061264629</v>
+        <v>0.2058925345994693</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1071827620336817</v>
+        <v>0.1076533263902451</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2341845279079098</v>
+        <v>0.2358592233270008</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1392612400619395</v>
+        <v>0.1403826682554797</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>0.271341383841199</v>
+        <v>0.2727950920125348</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1800641854559589</v>
+        <v>0.1809196242505155</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3158288464589407</v>
+        <v>0.317007260255766</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2290100809710532</v>
+        <v>0.2296609251037977</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3672233655101436</v>
+        <v>0.3682229550101819</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2859495174893664</v>
+        <v>0.2863549803326499</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4257459704027849</v>
+        <v>0.4269016881139613</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3510517528023256</v>
+        <v>0.35165210964099</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4921630365870894</v>
+        <v>0.4930472576756375</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4250329717688658</v>
+        <v>0.4254778085481455</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5659931523888523</v>
+        <v>0.5672890655118548</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5077496658443149</v>
+        <v>0.5087964645756605</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6483115577321803</v>
+        <v>0.6499683884910806</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6003524429479112</v>
+        <v>0.6018357027497487</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7410554761467684</v>
+        <v>0.7431053078412394</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7050360616910133</v>
+        <v>0.7069719452796176</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8489297142699497</v>
+        <v>0.8515803790060107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.827393628201106</v>
+        <v>0.8303786856476056</v>
       </c>
     </row>
     <row r="102">

--- a/docs/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
+++ b/docs/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6.650985193515199e-10</v>
+        <v>1.848651158265418e-08</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>9.435629509528259e-06</v>
+        <v>8.629401430334518e-06</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.940332640220782e-05</v>
+        <v>3.57861057156248e-05</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8.912433899491021e-05</v>
+        <v>8.158993579336011e-05</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000157591622060699</v>
+        <v>0.0001452887697347207</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002440099361728773</v>
+        <v>0.0002264599827342399</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003482974741566703</v>
+        <v>0.0003247913490243328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004692287845529481</v>
+        <v>0.0004408157094592831</v>
       </c>
       <c r="D15" t="n">
-        <v>8.081650430796593e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006076991141689865</v>
+        <v>0.0005735910967008442</v>
       </c>
       <c r="D16" t="n">
-        <v>1.229764095951468e-05</v>
+        <v>5.581914313972155e-06</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007643122737196944</v>
+        <v>0.000724910568929212</v>
       </c>
       <c r="D17" t="n">
-        <v>3.568947197799329e-05</v>
+        <v>2.395874574452934e-05</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0009379271276902408</v>
+        <v>0.0008940871743036786</v>
       </c>
       <c r="D18" t="n">
-        <v>6.928208659886968e-05</v>
+        <v>5.395803128339271e-05</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001128317933738168</v>
+        <v>0.001082678300202107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001128035288148558</v>
+        <v>9.411622673176995e-05</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001336061316346792</v>
+        <v>0.001289899307701796</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000166174935932489</v>
+        <v>0.0001449428268263245</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001561749592812818</v>
+        <v>0.001515372281024599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002295489303010083</v>
+        <v>0.0002058285475018214</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001805448643154809</v>
+        <v>0.001758703238329739</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003031009419451505</v>
+        <v>0.0002769013941261135</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002067410665238578</v>
+        <v>0.002021123038553598</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003867088377299903</v>
+        <v>0.0003581832471944157</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002349753083193871</v>
+        <v>0.002301638373605559</v>
       </c>
       <c r="D24" t="n">
-        <v>0.000480288412308698</v>
+        <v>0.0004501173684320405</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002652335917633582</v>
+        <v>0.002601505142314592</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000584318451764875</v>
+        <v>0.0005524386362640647</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002974199940300828</v>
+        <v>0.002922015500598368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0006988194923462606</v>
+        <v>0.0006658570052580817</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003317539269302034</v>
+        <v>0.003262769751446372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0008239688789645609</v>
+        <v>0.0007898883685609782</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003682649255309679</v>
+        <v>0.003623793476160117</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0009616568961458178</v>
+        <v>0.0009258213359183565</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004069317874955292</v>
+        <v>0.004006090849688459</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00111192165371937</v>
+        <v>0.001073456657501028</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004478060312691045</v>
+        <v>0.004409755602286333</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001274711265054723</v>
+        <v>0.001234174215762358</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004910118576634573</v>
+        <v>0.004835587592553756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001450009526464882</v>
+        <v>0.001406994624885992</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00536612163242128</v>
+        <v>0.005283813535389457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001639223240251231</v>
+        <v>0.001591301572885864</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005846644121894883</v>
+        <v>0.00575586740423954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001842673858989195</v>
+        <v>0.001787480436637567</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00635228118622505</v>
+        <v>0.006252026569685305</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002059382547000541</v>
+        <v>0.001996563323604301</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006883260272241341</v>
+        <v>0.006771480875587036</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002290251793841661</v>
+        <v>0.002217805172987552</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007440534474431162</v>
+        <v>0.007315981828670959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002535418713155514</v>
+        <v>0.002452849281681767</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008022696785132575</v>
+        <v>0.0078885927962675</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002794240274016885</v>
+        <v>0.002703076696549811</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008631269815319626</v>
+        <v>0.008488512532464746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003066559633381765</v>
+        <v>0.002968818256483796</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009268786461359937</v>
+        <v>0.009117915647600672</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003354782296716049</v>
+        <v>0.003250325080223701</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009934714595773051</v>
+        <v>0.009775566679519307</v>
       </c>
       <c r="D40" t="n">
-        <v>0.003658734634046592</v>
+        <v>0.003547496145192132</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01062798312084516</v>
+        <v>0.01046174078788672</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003978072982383201</v>
+        <v>0.003860251135713529</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01135096559331785</v>
+        <v>0.01117585559508204</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004312605081372527</v>
+        <v>0.004188726913248905</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01210394534509394</v>
+        <v>0.01192132392023616</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004662640926836132</v>
+        <v>0.004534531481107271</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01288666543281509</v>
+        <v>0.01269854245234837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005030447481218469</v>
+        <v>0.004898019053775293</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01370183163770503</v>
+        <v>0.01350844549611614</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005416823291020024</v>
+        <v>0.00527870927697528</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01455227264723075</v>
+        <v>0.014352092953841</v>
       </c>
       <c r="D46" t="n">
-        <v>0.005823459276959154</v>
+        <v>0.00567925265883003</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01543910533535238</v>
+        <v>0.01523266151243704</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006249238222572891</v>
+        <v>0.006098057463777794</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0163637961347358</v>
+        <v>0.01614964635304865</v>
       </c>
       <c r="D48" t="n">
-        <v>0.006694855345445297</v>
+        <v>0.006537030950276152</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01732546117560708</v>
+        <v>0.01710403762537641</v>
       </c>
       <c r="D49" t="n">
-        <v>0.007161776007343163</v>
+        <v>0.006998998747128493</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01832596889039937</v>
+        <v>0.01809596405071672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.007650794263614986</v>
+        <v>0.007483677327515616</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01936533390942373</v>
+        <v>0.01912612660035589</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008162314072178238</v>
+        <v>0.007990666079910532</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02044457714310993</v>
+        <v>0.02019344679425151</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008697393517711731</v>
+        <v>0.008519422283512317</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02156501356582434</v>
+        <v>0.02130386235023082</v>
       </c>
       <c r="D53" t="n">
-        <v>0.009256626929320935</v>
+        <v>0.009070982358277729</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02272823272465302</v>
+        <v>0.02246009240890871</v>
       </c>
       <c r="D54" t="n">
-        <v>0.009841366819386006</v>
+        <v>0.009647720499109285</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02393673450804536</v>
+        <v>0.02366191496656731</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01045132576196237</v>
+        <v>0.01025070962051034</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02519258430756122</v>
+        <v>0.02491145968664366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01108843226762127</v>
+        <v>0.01088081613215369</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02649254998123601</v>
+        <v>0.02621089514218796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01175148787787911</v>
+        <v>0.01153878917353518</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0278446210487839</v>
+        <v>0.02756270910947833</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01244329046937909</v>
+        <v>0.01222621898230268</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>0.029250573213759</v>
+        <v>0.02897082583611871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0131646659656236</v>
+        <v>0.01294195311680361</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03071670972925079</v>
+        <v>0.03043563762988971</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01391528352517645</v>
+        <v>0.01368522223732832</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03224358572193402</v>
+        <v>0.03195584506948419</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01469662418444839</v>
+        <v>0.01445919199768124</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03382887269645048</v>
+        <v>0.03353463008261574</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01551080629688504</v>
+        <v>0.01526518928522395</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03547629768586456</v>
+        <v>0.03517350216937644</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01635902259086846</v>
+        <v>0.01610568252518509</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0371953937326144</v>
+        <v>0.03688458123279914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0172423184303316</v>
+        <v>0.0169791448371517</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03898588207687046</v>
+        <v>0.03867490910589202</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0181593763906759</v>
+        <v>0.01788851024295812</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04085762658167001</v>
+        <v>0.04054354385268845</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01911379600856392</v>
+        <v>0.01883536120312562</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04282157266545549</v>
+        <v>0.04250457018232223</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02010557070035519</v>
+        <v>0.01981957949496243</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04488444781750348</v>
+        <v>0.04456492103503033</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02113634446667834</v>
+        <v>0.020843863502726</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04704517149529807</v>
+        <v>0.0467278280438068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02220914553338983</v>
+        <v>0.02191041957886909</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04931876143688712</v>
+        <v>0.04900743513945455</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0233260620982971</v>
+        <v>0.02302179042945563</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>0.05172621115150727</v>
+        <v>0.05141787819337239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02448947349780582</v>
+        <v>0.02418256334479382</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05428015137236415</v>
+        <v>0.05398091831767622</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02570310134077462</v>
+        <v>0.02539032165481049</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05700474397298083</v>
+        <v>0.05671953637977685</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02697044173203458</v>
+        <v>0.02664892942348986</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05991986142938238</v>
+        <v>0.05965117860921963</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0282960432698273</v>
+        <v>0.02796490881600504</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06306903877812713</v>
+        <v>0.06279441370588512</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02968181932112346</v>
+        <v>0.02934538623441432</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06650529150148506</v>
+        <v>0.0661837065941792</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03113498291926217</v>
+        <v>0.03079981660540627</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07028224685155805</v>
+        <v>0.06990208124469079</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03266416662535409</v>
+        <v>0.03232659487315364</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07441681600291093</v>
+        <v>0.07400343836646275</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03428383540658114</v>
+        <v>0.03394091484267808</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07901137905182781</v>
+        <v>0.07855896095546797</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03600350373943971</v>
+        <v>0.03564050952743403</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08409467173774443</v>
+        <v>0.08362345145617162</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03783701239955043</v>
+        <v>0.037444889464284</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08975035819458292</v>
+        <v>0.08925581334083788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03979761293176122</v>
+        <v>0.03936855756950733</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09600584431973239</v>
+        <v>0.09548072573510334</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04189842413386412</v>
+        <v>0.04143620376145576</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1029425639265255</v>
+        <v>0.1023557961971335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04418066703025838</v>
+        <v>0.04367057870975791</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1106348742668855</v>
+        <v>0.1099821286977521</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04668491221307414</v>
+        <v>0.0461224126985918</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1191382393332683</v>
+        <v>0.1184396291548474</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04944504913245163</v>
+        <v>0.04883954865913382</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1286349875012225</v>
+        <v>0.12790343816437</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05256472747411913</v>
+        <v>0.05194420497538475</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1393352901057771</v>
+        <v>0.1385371133944896</v>
       </c>
       <c r="D87" t="n">
-        <v>0.05618597459954322</v>
+        <v>0.05555706999916801</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1514286899542718</v>
+        <v>0.1507233118955087</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06069778075572794</v>
+        <v>0.06011473886522573</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1654801844953855</v>
+        <v>0.1649200401693039</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06812587048298349</v>
+        <v>0.0676966838447788</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1828980021416812</v>
+        <v>0.1822302172879039</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08328629220237169</v>
+        <v>0.08333357312648947</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2058925345994693</v>
+        <v>0.2047957061264629</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1076533263902451</v>
+        <v>0.1071827620336817</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2358592233270008</v>
+        <v>0.2341845279079098</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1403826682554797</v>
+        <v>0.1392612400619395</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2727950920125348</v>
+        <v>0.271341383841199</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1809196242505155</v>
+        <v>0.1800641854559589</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>0.317007260255766</v>
+        <v>0.3158288464589407</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2296609251037977</v>
+        <v>0.2290100809710532</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3682229550101819</v>
+        <v>0.3672233655101436</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2863549803326499</v>
+        <v>0.2859495174893664</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4269016881139613</v>
+        <v>0.4257459704027849</v>
       </c>
       <c r="D96" t="n">
-        <v>0.35165210964099</v>
+        <v>0.3510517528023256</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4930472576756375</v>
+        <v>0.4921630365870894</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4254778085481455</v>
+        <v>0.4250329717688658</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5672890655118548</v>
+        <v>0.5659931523888523</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5087964645756605</v>
+        <v>0.5077496658443149</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6499683884910806</v>
+        <v>0.6483115577321803</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6018357027497487</v>
+        <v>0.6003524429479112</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7431053078412394</v>
+        <v>0.7410554761467684</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7069719452796176</v>
+        <v>0.7050360616910133</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8515803790060107</v>
+        <v>0.8489297142699497</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8303786856476056</v>
+        <v>0.827393628201106</v>
       </c>
     </row>
     <row r="102">
